--- a/data/trans_camb/P2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,66</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 0,86</t>
+          <t>-28,91; -1,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 2,24</t>
+          <t>-26,97; -0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 2,06</t>
+          <t>-31,07; -0,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,51</t>
+          <t>-2,4; 6,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -0,75</t>
+          <t>-5,1; 3,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,49; -1,1</t>
+          <t>-7,16; 2,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -0,11</t>
+          <t>-7,6; 2,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -0,22</t>
+          <t>-3,19; 5,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -1,06</t>
+          <t>-12,9; -0,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; -0,55</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-16,02; -0,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 4,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,33%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,99%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-4,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 0,84</t>
+          <t>-29,75; -1,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 2,4</t>
+          <t>-28,16; -0,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 2,19</t>
+          <t>-32,47; -0,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,64</t>
+          <t>-2,5; 7,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -0,8</t>
+          <t>-5,33; 3,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -1,17</t>
+          <t>-7,44; 2,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -0,13</t>
+          <t>-7,87; 2,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -0,24</t>
+          <t>-3,26; 5,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,53; -1,13</t>
+          <t>-13,78; -0,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,66; -0,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-17,22; -0,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 4,35</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 3,38</t>
+          <t>-6,0; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 4,46</t>
+          <t>-7,78; 1,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,82</t>
+          <t>-7,78; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,96</t>
+          <t>-9,38; 0,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 4,36</t>
+          <t>-5,46; 3,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 3,04</t>
+          <t>-6,42; 2,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 2,97</t>
+          <t>-8,6; 1,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,54</t>
+          <t>-4,65; 3,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 1,25</t>
+          <t>-4,01; 1,57</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 0,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 0,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 1,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 3,56</t>
+          <t>-6,04; 2,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,81</t>
+          <t>-7,9; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,02</t>
+          <t>-7,82; 1,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,83</t>
+          <t>-9,5; 0,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,62</t>
+          <t>-5,63; 3,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 3,02</t>
+          <t>-6,59; 2,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,17</t>
+          <t>-8,8; 1,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,76</t>
+          <t>-4,74; 3,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,22</t>
+          <t>-4,08; 1,64</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 0,64</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 0,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 1,03</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-14,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,62</t>
+          <t>-19,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,36</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-10,26</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,71</t>
+          <t>-13,66; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 3,19</t>
+          <t>-34,97; -3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 1,03</t>
+          <t>-45,64; -5,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 9,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 8,24</t>
+          <t>-9,08; 5,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 7,8</t>
+          <t>-9,48; 5,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 6,82</t>
+          <t>-9,78; 5,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,05</t>
+          <t>-13,09; 5,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 1,89</t>
+          <t>-6,27; 2,44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-18,52; -1,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; -2,86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 2,54</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>-14,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,12%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>-0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-7,46%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-10,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,32%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 10,9</t>
+          <t>-13,66; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 3,18</t>
+          <t>-34,97; -3,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 0,74</t>
+          <t>-45,64; -5,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 10,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 9,59</t>
+          <t>-9,91; 5,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 9,14</t>
+          <t>-9,91; 5,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 7,69</t>
+          <t>-10,02; 5,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 3,29</t>
+          <t>-13,14; 5,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 2,0</t>
+          <t>-6,34; 2,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-18,78; -1,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; -2,93</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 2,6</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-4,88</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 0,78</t>
+          <t>-14,93; -0,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,15</t>
+          <t>-15,38; -1,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,06</t>
+          <t>-18,49; -2,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,36</t>
+          <t>-3,8; 2,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -0,25</t>
+          <t>-3,34; 2,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -1,15</t>
+          <t>-4,78; 1,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,6</t>
+          <t>-5,68; 1,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,18</t>
+          <t>-2,33; 3,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,49</t>
+          <t>-7,6; -0,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; -1,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; -2,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-5,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-7,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,75</t>
+          <t>-15,23; -0,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,2</t>
+          <t>-15,74; -2,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,05</t>
+          <t>-18,88; -2,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,52</t>
+          <t>-3,86; 2,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -0,26</t>
+          <t>-3,45; 2,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -1,29</t>
+          <t>-4,9; 1,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,64</t>
+          <t>-5,92; 1,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,19</t>
+          <t>-2,4; 3,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -1,59</t>
+          <t>-7,96; -0,34</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; -1,33</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; -2,19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 1,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
